--- a/mindenExcel/gazdinfo_BSc_uj_kepzes-converted.xlsx
+++ b/mindenExcel/gazdinfo_BSc_uj_kepzes-converted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="12" windowWidth="18960" windowHeight="11328" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="18960" windowHeight="11328" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="509">
   <si>
     <r>
       <rPr>
@@ -4026,25 +4026,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Kötelezően választható szakmai tárgy  Optional professional
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Angol nyelv IV. English Language IV</t>
     </r>
   </si>
@@ -4475,25 +4456,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kötelezően választható szakmai tárgy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Optional professional subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
@@ -4865,16 +4827,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Szabadon választható tárgy Optional general subjects</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
@@ -4994,21 +4946,21 @@
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Kötelezően választható szakmai tárgyak
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">óraszám,
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Optional professional subjects</t>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>számon- kérés</t>
     </r>
   </si>
   <si>
@@ -5019,7 +4971,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">óraszám,
+      <t xml:space="preserve">kredit
 </t>
     </r>
     <r>
@@ -5029,27 +4981,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>számon- kérés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">kredit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>elm.- gyak.%</t>
     </r>
   </si>
@@ -5434,66 +5365,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bevezetés a lágy számítás</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>VEMIMAB512L</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T9,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">módszereibe Introduction into soft
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>computing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>70   30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K1, K2, K6</t>
     </r>
   </si>
   <si>
@@ -7041,6 +6913,34 @@
   <si>
     <t>Autóipari szoftver- és hardverfejlesztés a gyakorlatban I.
 Hardware and software development in auto industry I</t>
+  </si>
+  <si>
+    <t>VEPETO1122A</t>
+  </si>
+  <si>
+    <t>VEPETO2222A</t>
+  </si>
+  <si>
+    <t>VEPETO4222A</t>
+  </si>
+  <si>
+    <t>VEPETO3122A</t>
+  </si>
+  <si>
+    <t>Differenciált szakmai ismeretek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szabadon választható tárgyak </t>
+  </si>
+  <si>
+    <t>Bevezetés a lágy számítás módszereibe Introduction into soft
+computing</t>
+  </si>
+  <si>
+    <t>2 70   30</t>
+  </si>
+  <si>
+    <t>T9, K1, K2, K6</t>
   </si>
 </sst>
 </file>
@@ -7349,7 +7249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7573,10 +7473,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="22"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -7585,7 +7494,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
@@ -7593,35 +7511,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="22"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="32"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -7630,10 +7560,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7642,40 +7572,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -7712,6 +7612,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8081,683 +7987,683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="84" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="1:4" ht="29.7" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
     </row>
     <row r="5" spans="1:4" ht="34.799999999999997" customHeight="1">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
     </row>
     <row r="6" spans="1:4" ht="55.05" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
     </row>
     <row r="9" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
     </row>
     <row r="10" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:4" ht="110.7" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" ht="97.05" customHeight="1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
     </row>
     <row r="16" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
     </row>
     <row r="17" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
     </row>
     <row r="18" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
     </row>
     <row r="22" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
     </row>
     <row r="23" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
     </row>
     <row r="24" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
     </row>
     <row r="26" spans="1:4" ht="69" customHeight="1">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
     </row>
     <row r="28" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
     </row>
     <row r="31" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
     </row>
     <row r="32" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A36" s="77" t="s">
+      <c r="A36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A42" s="77" t="s">
+      <c r="A42" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
     </row>
     <row r="43" spans="1:4" ht="31.5" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
     </row>
     <row r="47" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
     </row>
     <row r="49" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
     </row>
     <row r="52" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
     </row>
     <row r="53" spans="1:4" ht="47.25" customHeight="1">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
     </row>
     <row r="54" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
     </row>
     <row r="55" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="74"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
     </row>
     <row r="58" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A58" s="74" t="s">
+      <c r="A58" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
     </row>
     <row r="60" spans="1:4" ht="69.3" customHeight="1">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="82"/>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A61" s="76" t="s">
+      <c r="A61" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
     </row>
     <row r="62" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A63" s="77" t="s">
+      <c r="A63" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
     </row>
     <row r="64" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
     </row>
     <row r="65" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="79"/>
     </row>
     <row r="67" spans="1:4" ht="110.7" customHeight="1">
-      <c r="A67" s="74" t="s">
+      <c r="A67" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="74"/>
+      <c r="B67" s="76"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
     </row>
     <row r="69" spans="1:4" ht="55.2" customHeight="1">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
     </row>
     <row r="71" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
     </row>
     <row r="72" spans="1:4" ht="139.5" customHeight="1">
-      <c r="A72" s="74" t="s">
+      <c r="A72" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="74"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
     </row>
     <row r="73" spans="1:4" ht="123.75" customHeight="1">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="75"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="76" t="s">
+      <c r="A74" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="76"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
     </row>
     <row r="75" spans="1:4" ht="36" customHeight="1">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="75"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="1:4" ht="36" customHeight="1">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="75"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A77" s="76" t="s">
+      <c r="A77" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="79"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A78" s="74" t="s">
+      <c r="A78" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="74"/>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A79" s="76" t="s">
+      <c r="A79" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="76"/>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="79"/>
     </row>
     <row r="80" spans="1:4" ht="69" customHeight="1">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="75"/>
-      <c r="C80" s="75"/>
-      <c r="D80" s="75"/>
+      <c r="B80" s="84"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A81" s="79" t="s">
+      <c r="A81" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
     </row>
     <row r="82" spans="1:4" ht="85.5" customHeight="1">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="75"/>
-      <c r="C82" s="75"/>
-      <c r="D82" s="75"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A83" s="76" t="s">
+      <c r="A83" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="76"/>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
     </row>
     <row r="84" spans="1:4" ht="35.25" customHeight="1">
-      <c r="A84" s="78" t="s">
+      <c r="A84" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="86"/>
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
@@ -8814,191 +8720,191 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="27.3" customHeight="1">
-      <c r="A92" s="77" t="s">
+      <c r="A92" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B92" s="77"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="76"/>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
     </row>
     <row r="94" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A94" s="78" t="s">
+      <c r="A94" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
     </row>
     <row r="95" spans="1:4" ht="69" customHeight="1">
-      <c r="A95" s="74" t="s">
+      <c r="A95" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="74"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
+      <c r="B95" s="76"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
     </row>
     <row r="96" spans="1:4" ht="55.8" customHeight="1">
-      <c r="A96" s="74" t="s">
+      <c r="A96" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="74"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="74"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
     </row>
     <row r="97" spans="1:4" ht="41.7" customHeight="1">
-      <c r="A97" s="75" t="s">
+      <c r="A97" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A98" s="76" t="s">
+      <c r="A98" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
     </row>
     <row r="99" spans="1:4" ht="110.7" customHeight="1">
-      <c r="A99" s="74" t="s">
+      <c r="A99" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
+      <c r="B99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A100" s="76" t="s">
+      <c r="A100" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B100" s="76"/>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
     </row>
     <row r="101" spans="1:4" ht="55.05" customHeight="1">
-      <c r="A101" s="77" t="s">
+      <c r="A101" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
     </row>
     <row r="102" spans="1:4" ht="56.55" customHeight="1">
-      <c r="A102" s="74" t="s">
+      <c r="A102" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
     <mergeCell ref="A102:D102"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A98:D98"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9023,16 +8929,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="56.7" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" customHeight="1">
@@ -9040,13 +8946,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="78.3" customHeight="1">
@@ -9054,13 +8960,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="113" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="131.25" customHeight="1">
@@ -9070,7 +8976,7 @@
       <c r="B4" s="111"/>
       <c r="C4" s="111"/>
       <c r="D4" s="10" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="51.75" customHeight="1">
@@ -9080,7 +8986,7 @@
       <c r="B5" s="111"/>
       <c r="C5" s="111"/>
       <c r="D5" s="10" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.549999999999997" customHeight="1">
@@ -9090,7 +8996,7 @@
       <c r="B6" s="111"/>
       <c r="C6" s="111"/>
       <c r="D6" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="64.95" customHeight="1">
@@ -9100,7 +9006,7 @@
       <c r="B7" s="114"/>
       <c r="C7" s="114"/>
       <c r="D7" s="10" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="51.75" customHeight="1">
@@ -9108,13 +9014,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C8" s="117" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" customHeight="1">
@@ -9124,7 +9030,7 @@
       <c r="B9" s="116"/>
       <c r="C9" s="112"/>
       <c r="D9" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
@@ -9132,7 +9038,7 @@
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="55" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -9142,7 +9048,7 @@
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="56" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -9150,7 +9056,7 @@
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
       <c r="D12" s="56" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -9158,7 +9064,7 @@
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
       <c r="D13" s="61" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -9166,7 +9072,7 @@
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="55" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -9174,7 +9080,7 @@
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="56" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.5" customHeight="1">
@@ -9184,7 +9090,7 @@
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="64" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -9192,7 +9098,7 @@
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
       <c r="D17" s="56" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
@@ -9200,7 +9106,7 @@
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
       <c r="D18" s="56" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -9208,7 +9114,7 @@
       <c r="B19" s="58"/>
       <c r="C19" s="58"/>
       <c r="D19" s="61" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -9218,7 +9124,7 @@
       <c r="B20" s="58"/>
       <c r="C20" s="58"/>
       <c r="D20" s="55" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -9226,7 +9132,7 @@
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
       <c r="D21" s="61" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -9234,7 +9140,7 @@
       <c r="B22" s="118"/>
       <c r="C22" s="118"/>
       <c r="D22" s="53" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="64.95" customHeight="1">
@@ -9244,7 +9150,7 @@
       <c r="B23" s="119"/>
       <c r="C23" s="119"/>
       <c r="D23" s="10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="38.549999999999997" customHeight="1">
@@ -9254,7 +9160,7 @@
       <c r="B24" s="119"/>
       <c r="C24" s="119"/>
       <c r="D24" s="10" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="91.5" customHeight="1">
@@ -9264,7 +9170,7 @@
       <c r="B25" s="119"/>
       <c r="C25" s="119"/>
       <c r="D25" s="10" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="78.3" customHeight="1">
@@ -9274,7 +9180,7 @@
       <c r="B26" s="120"/>
       <c r="C26" s="120"/>
       <c r="D26" s="10" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="81.45" customHeight="1">
@@ -9282,13 +9188,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D27" s="53" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -9298,7 +9204,7 @@
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
       <c r="D28" s="55" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -9306,7 +9212,7 @@
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="61" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -9314,7 +9220,7 @@
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
       <c r="D30" s="55" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.5" customHeight="1">
@@ -9324,16 +9230,16 @@
       <c r="B31" s="63"/>
       <c r="C31" s="63"/>
       <c r="D31" s="64" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="5.25" customHeight="1">
       <c r="A32" s="60"/>
       <c r="B32" s="111" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D32" s="60"/>
     </row>
@@ -9344,7 +9250,7 @@
       <c r="B33" s="111"/>
       <c r="C33" s="112"/>
       <c r="D33" s="10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="28.5" customHeight="1">
@@ -9354,7 +9260,7 @@
       <c r="B34" s="111"/>
       <c r="C34" s="112"/>
       <c r="D34" s="10" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -9362,7 +9268,7 @@
       <c r="B35" s="111"/>
       <c r="C35" s="112"/>
       <c r="D35" s="55" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
@@ -9370,7 +9276,7 @@
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
       <c r="D36" s="56" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
@@ -9380,7 +9286,7 @@
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
       <c r="D37" s="56" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
@@ -9388,7 +9294,7 @@
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38" s="56" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
@@ -9396,7 +9302,7 @@
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39" s="56" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
@@ -9404,7 +9310,7 @@
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
       <c r="D40" s="61" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -9426,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9720,7 +9626,9 @@
       <c r="A14" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>500</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>130</v>
       </c>
@@ -9747,16 +9655,16 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9772,8 +9680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10051,7 +9959,9 @@
       <c r="A13" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>501</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>130</v>
       </c>
@@ -10090,7 +10000,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10345,7 +10255,9 @@
       <c r="A12" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18" t="s">
+        <v>502</v>
+      </c>
       <c r="C12" s="12" t="s">
         <v>130</v>
       </c>
@@ -10384,7 +10296,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10619,8 +10531,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>266</v>
+      <c r="A11" s="73" t="s">
+        <v>504</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -10633,10 +10545,10 @@
     </row>
     <row r="12" spans="1:8" ht="25.8" customHeight="1">
       <c r="A12" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>162</v>
@@ -10652,9 +10564,11 @@
     </row>
     <row r="13" spans="1:8" ht="25.8" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="18"/>
+        <v>268</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>503</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>130</v>
       </c>
@@ -10693,7 +10607,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10709,7 +10623,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -10744,16 +10658,16 @@
     </row>
     <row r="3" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="C3" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>260</v>
@@ -10762,64 +10676,64 @@
         <v>259</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A4" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>278</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>186</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.5" customHeight="1">
       <c r="A5" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="C5" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>284</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>216</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>288</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>289</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>125</v>
@@ -10828,18 +10742,18 @@
         <v>149</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>292</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>293</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>147</v>
@@ -10848,21 +10762,21 @@
         <v>148</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>296</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>297</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>184</v>
@@ -10877,35 +10791,35 @@
         <v>186</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.5" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>299</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>300</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>214</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>303</v>
-      </c>
     </row>
     <row r="10" spans="1:8" ht="51" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>304</v>
+      <c r="A10" s="73" t="s">
+        <v>504</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -10942,7 +10856,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10959,7 +10873,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -10994,39 +10908,39 @@
     </row>
     <row r="3" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.5" customHeight="1">
       <c r="A4" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="D4" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>149</v>
@@ -11035,15 +10949,15 @@
         <v>190</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>157</v>
@@ -11058,18 +10972,18 @@
         <v>207</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>320</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>192</v>
@@ -11078,18 +10992,18 @@
         <v>149</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>147</v>
@@ -11101,38 +11015,38 @@
         <v>216</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="D8" s="9" t="s">
         <v>329</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>216</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>304</v>
+      <c r="A9" s="73" t="s">
+        <v>504</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -11144,8 +11058,8 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>333</v>
+      <c r="A10" s="73" t="s">
+        <v>505</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -11179,10 +11093,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11200,7 +11114,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="88" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -11228,43 +11142,43 @@
       <c r="E2" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="103" t="s">
+      <c r="G2" s="90"/>
+      <c r="H2" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="104"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="51" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>157</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="93" t="s">
-        <v>337</v>
-      </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="107" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="108"/>
+      <c r="F3" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:10" ht="51" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>266</v>
+      <c r="A4" s="73" t="s">
+        <v>504</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -11272,14 +11186,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="106"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>333</v>
+      <c r="A5" s="73" t="s">
+        <v>505</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -11287,35 +11201,35 @@
         <v>6</v>
       </c>
       <c r="E5" s="18"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:10" ht="31.5" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" s="98"/>
+      <c r="F6" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="G6" s="100"/>
+      <c r="H6" s="99" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" s="100"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -11327,37 +11241,37 @@
         <v>29</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="102"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
     </row>
     <row r="8" spans="1:10" ht="39" customHeight="1">
-      <c r="A8" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
+      <c r="A8" s="121" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:10" ht="38.549999999999997" customHeight="1">
       <c r="A9" s="72" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>112</v>
@@ -11365,20 +11279,20 @@
       <c r="F9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="104"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>148</v>
@@ -11389,20 +11303,20 @@
       <c r="F10" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="91" t="s">
+      <c r="G10" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="92"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:10" ht="37.5" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>148</v>
@@ -11411,25 +11325,25 @@
         <v>126</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="99" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="100"/>
+        <v>348</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:10" ht="37.5" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>119</v>
@@ -11437,23 +11351,23 @@
       <c r="F12" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="G12" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="H12" s="92"/>
+      <c r="G12" s="101" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>149</v>
@@ -11461,47 +11375,47 @@
       <c r="F13" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="97" t="s">
-        <v>361</v>
-      </c>
-      <c r="H13" s="98"/>
+      <c r="G13" s="99" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="1:10" ht="37.5" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>228</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="97" t="s">
-        <v>366</v>
-      </c>
-      <c r="H14" s="98"/>
+      <c r="G14" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>149</v>
@@ -11509,41 +11423,41 @@
       <c r="F15" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="97" t="s">
-        <v>370</v>
-      </c>
-      <c r="H15" s="98"/>
+      <c r="G15" s="99" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="1:10" ht="37.5" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>374</v>
-      </c>
-      <c r="H16" s="98"/>
+        <v>369</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="1:8" ht="37.5" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>157</v>
@@ -11557,23 +11471,23 @@
       <c r="F17" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="91" t="s">
-        <v>377</v>
-      </c>
-      <c r="H17" s="92"/>
+      <c r="G17" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>378</v>
+      <c r="A18" s="73" t="s">
+        <v>506</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="17">
-        <v>2</v>
+      <c r="D18" s="17" t="s">
+        <v>507</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>126</v>
@@ -11581,36 +11495,44 @@
       <c r="F18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="122" t="s">
+        <v>508</v>
+      </c>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A19" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="H19" s="102"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.549999999999997" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="98"/>
-    </row>
-    <row r="19" spans="1:8" ht="38.549999999999997" customHeight="1">
-      <c r="A19" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="28" t="s">
-        <v>382</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="95" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" s="96"/>
-    </row>
-    <row r="20" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A20" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="C20" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>143</v>
@@ -11618,23 +11540,23 @@
       <c r="E20" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="91" t="s">
-        <v>388</v>
-      </c>
-      <c r="H20" s="92"/>
-    </row>
-    <row r="21" spans="1:8" ht="38.549999999999997" customHeight="1">
+      <c r="F20" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G20" s="101" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="102"/>
+    </row>
+    <row r="21" spans="1:8" ht="37.5" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>143</v>
@@ -11643,166 +11565,166 @@
         <v>126</v>
       </c>
       <c r="F21" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" s="106"/>
+    </row>
+    <row r="22" spans="1:8" ht="51" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="G21" s="91" t="s">
+      <c r="B22" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="H21" s="92"/>
-    </row>
-    <row r="22" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="H22" s="106"/>
+    </row>
+    <row r="23" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="E23" s="29" t="s">
         <v>392</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="H22" s="96"/>
-    </row>
-    <row r="23" spans="1:8" ht="51" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>396</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="95" t="s">
-        <v>397</v>
-      </c>
-      <c r="H23" s="96"/>
-    </row>
-    <row r="24" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A24" s="14" t="s">
-        <v>398</v>
+      <c r="G23" s="105" t="s">
+        <v>393</v>
+      </c>
+      <c r="H23" s="106"/>
+    </row>
+    <row r="24" spans="1:8" ht="51" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="H24" s="96"/>
-    </row>
-    <row r="25" spans="1:8" ht="51" customHeight="1">
+      <c r="G24" s="105" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" s="106"/>
+    </row>
+    <row r="25" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>401</v>
+        <v>313</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="H25" s="96"/>
+      <c r="G25" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="H25" s="92"/>
     </row>
     <row r="26" spans="1:8" ht="38.549999999999997" customHeight="1">
       <c r="A26" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" spans="1:8" ht="51" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="93" t="s">
-        <v>409</v>
-      </c>
-      <c r="H26" s="94"/>
-    </row>
-    <row r="27" spans="1:8" ht="38.549999999999997" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="G27" s="93" t="s">
-        <v>413</v>
-      </c>
-      <c r="H27" s="94"/>
+        <v>352</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="106"/>
     </row>
     <row r="28" spans="1:8" ht="51" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>157</v>
+        <v>288</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>356</v>
@@ -11810,300 +11732,275 @@
       <c r="E28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G28" s="95" t="s">
+      <c r="F28" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G28" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="H28" s="96"/>
-    </row>
-    <row r="29" spans="1:8" ht="51" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="H28" s="106"/>
+    </row>
+    <row r="29" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="102"/>
+    </row>
+    <row r="30" spans="1:8" ht="51" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="101" t="s">
+        <v>414</v>
+      </c>
+      <c r="H30" s="102"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.549999999999997" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="C31" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>417</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="G29" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="96"/>
-    </row>
-    <row r="30" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="92"/>
-    </row>
-    <row r="31" spans="1:8" ht="51" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="G31" s="91" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H31" s="92"/>
     </row>
-    <row r="32" spans="1:8" ht="38.549999999999997" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>424</v>
+    <row r="32" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A32" s="14" t="s">
+        <v>419</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>426</v>
+        <v>377</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>421</v>
+      </c>
+      <c r="H32" s="92"/>
+    </row>
+    <row r="33" spans="1:8" ht="63.75" customHeight="1">
+      <c r="A33" s="73" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="101" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="102"/>
+    </row>
+    <row r="34" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="1:8" ht="51" customHeight="1">
+      <c r="A35" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="H32" s="94"/>
-    </row>
-    <row r="33" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A33" s="14" t="s">
+      <c r="B35" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="93" t="s">
-        <v>430</v>
-      </c>
-      <c r="H33" s="94"/>
-    </row>
-    <row r="34" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A34" s="73" t="s">
-        <v>508</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="91" t="s">
-        <v>433</v>
-      </c>
-      <c r="H34" s="92"/>
-    </row>
-    <row r="35" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>435</v>
-      </c>
       <c r="C35" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>432</v>
+        <v>124</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="H35" s="90"/>
+      <c r="G35" s="101" t="s">
+        <v>429</v>
+      </c>
+      <c r="H35" s="102"/>
     </row>
     <row r="36" spans="1:8" ht="51" customHeight="1">
       <c r="A36" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>437</v>
+        <v>430</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>431</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>360</v>
+        <v>125</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="G36" s="91" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:8" ht="51" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>439</v>
+    <row r="37" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>433</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>125</v>
+        <v>435</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="93" t="s">
-        <v>441</v>
-      </c>
-      <c r="H37" s="94"/>
-    </row>
-    <row r="38" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="93" t="s">
-        <v>445</v>
-      </c>
-      <c r="H38" s="94"/>
+      <c r="G37" s="91" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+  <mergeCells count="43">
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12113,7 +12010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -12129,7 +12026,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1">
       <c r="A1" s="109" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -12140,22 +12037,22 @@
     </row>
     <row r="2" spans="1:7" ht="55.8" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
@@ -12274,7 +12171,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B10" s="46">
         <v>165</v>
@@ -12294,7 +12191,7 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
       <c r="A11" s="110" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B11" s="110"/>
       <c r="C11" s="110"/>
